--- a/Formula_Use.xlsx
+++ b/Formula_Use.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DGMU_System_Collection\DGMU_HRMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT_Projects\SGC_HRMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>BASIC PAY</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>PAYROLL - PAYSLIP</t>
+  </si>
+  <si>
+    <t>13th Month</t>
+  </si>
+  <si>
+    <t>Basic Pay + Paid Leaves / 12</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,6 +731,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
